--- a/data/raw/FORESTRYdata/2020/花蓮處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/花蓮處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="新城" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="420">
   <si>
     <t>林管處</t>
   </si>
@@ -1322,6 +1322,14 @@
   </si>
   <si>
     <t>叫聲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南華</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1426,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1455,6 +1463,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8260,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8433,11 +8444,11 @@
       <c r="K3" s="9">
         <v>2</v>
       </c>
-      <c r="L3" s="9">
-        <v>292498</v>
-      </c>
-      <c r="M3" s="9">
-        <v>2637415</v>
+      <c r="L3" s="18">
+        <v>292501</v>
+      </c>
+      <c r="M3" s="18">
+        <v>2637680</v>
       </c>
       <c r="N3" s="3">
         <v>11</v>
@@ -9022,7 +9033,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>395</v>
       </c>
       <c r="B14" t="s">
@@ -9078,7 +9089,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B15" t="s">
@@ -9134,7 +9145,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B16" t="s">
@@ -9190,7 +9201,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B17" t="s">
@@ -9246,7 +9257,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B18" t="s">
@@ -9302,7 +9313,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B19" t="s">
@@ -9358,7 +9369,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B20" t="s">
@@ -9414,7 +9425,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B21" t="s">
@@ -9470,7 +9481,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B22" t="s">
@@ -9526,7 +9537,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B23" t="s">
@@ -9582,7 +9593,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B24" t="s">
@@ -9638,7 +9649,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B25" t="s">
@@ -9697,7 +9708,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B26" t="s">
@@ -9753,7 +9764,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B27" t="s">
@@ -9809,7 +9820,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B28" t="s">
@@ -9865,7 +9876,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B29" t="s">
@@ -9921,7 +9932,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B30" t="s">
@@ -9977,7 +9988,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B31" t="s">
@@ -10033,7 +10044,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B32" t="s">
@@ -10089,7 +10100,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B33" t="s">
@@ -10145,7 +10156,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B34" t="s">
@@ -10201,7 +10212,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B35" t="s">
@@ -10257,7 +10268,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B36" t="s">
@@ -10313,7 +10324,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>394</v>
       </c>
       <c r="B37" t="s">
@@ -15673,7 +15684,7 @@
         <v>307865</v>
       </c>
       <c r="M130" s="9">
-        <v>2636246</v>
+        <v>2639246</v>
       </c>
       <c r="N130" s="2">
         <v>10</v>
@@ -15788,7 +15799,7 @@
         <v>307671</v>
       </c>
       <c r="M132" s="9">
-        <v>2638721</v>
+        <v>2638872</v>
       </c>
       <c r="N132" s="2">
         <v>10</v>
@@ -15929,7 +15940,7 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>101</v>
+        <v>418</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -16418,11 +16429,11 @@
       <c r="K143" s="9">
         <v>5</v>
       </c>
-      <c r="L143" s="9">
-        <v>307077</v>
-      </c>
-      <c r="M143" s="9">
-        <v>2640029</v>
+      <c r="L143" s="10">
+        <v>307068</v>
+      </c>
+      <c r="M143" s="10">
+        <v>2640018</v>
       </c>
       <c r="N143" s="2">
         <v>10</v>
@@ -17732,8 +17743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="E157" workbookViewId="0">
+      <selection activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -17892,8 +17903,8 @@
       <c r="J3" t="s">
         <v>397</v>
       </c>
-      <c r="K3" s="2">
-        <v>2</v>
+      <c r="K3" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="L3" s="4">
         <v>293466</v>
@@ -20172,8 +20183,8 @@
       <c r="J45" t="s">
         <v>398</v>
       </c>
-      <c r="K45" s="2">
-        <v>2</v>
+      <c r="K45" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="L45" s="4">
         <v>287738</v>
@@ -25585,8 +25596,8 @@
       <c r="J146" t="s">
         <v>249</v>
       </c>
-      <c r="K146" s="2">
-        <v>1</v>
+      <c r="K146" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="L146" s="4">
         <v>286040</v>
@@ -26830,6 +26841,7 @@
   <autoFilter ref="A1:T169"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/raw/FORESTRYdata/2020/花蓮處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/花蓮處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="新城" sheetId="3" r:id="rId1"/>
@@ -1775,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2826,7 +2826,7 @@
         <v>147</v>
       </c>
       <c r="K18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L18" s="2">
         <v>284098</v>
@@ -2882,7 +2882,7 @@
         <v>147</v>
       </c>
       <c r="K19" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19" s="2">
         <v>285145</v>
@@ -3168,7 +3168,7 @@
         <v>147</v>
       </c>
       <c r="K24" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L24" s="2">
         <v>284098</v>
@@ -3230,7 +3230,7 @@
         <v>147</v>
       </c>
       <c r="K25" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" s="2">
         <v>285145</v>
@@ -5736,7 +5736,7 @@
         <v>183</v>
       </c>
       <c r="K69" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L69" s="2">
         <v>302259</v>
@@ -6072,7 +6072,7 @@
         <v>183</v>
       </c>
       <c r="K75" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L75" s="2">
         <v>302259</v>
@@ -8264,6 +8264,7 @@
   <autoFilter ref="B1:T113"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17743,7 +17744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E157" workbookViewId="0">
+    <sheetView topLeftCell="E76" workbookViewId="0">
       <selection activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
@@ -26849,8 +26850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="K25" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -29044,7 +29045,7 @@
         <v>47</v>
       </c>
       <c r="K40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" s="2">
         <v>275874</v>
@@ -29224,7 +29225,7 @@
         <v>47</v>
       </c>
       <c r="K43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43" s="2">
         <v>276075</v>
@@ -29280,7 +29281,7 @@
         <v>47</v>
       </c>
       <c r="K44" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" s="2">
         <v>276139</v>
@@ -29333,7 +29334,7 @@
         <v>47</v>
       </c>
       <c r="K45" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L45" s="2">
         <v>276331</v>
@@ -29392,7 +29393,7 @@
         <v>47</v>
       </c>
       <c r="K46" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L46" s="2">
         <v>276224</v>
